--- a/externals/closedxml/test/templates/apartment.usages.xlsx
+++ b/externals/closedxml/test/templates/apartment.usages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zongsoft\Framework\externals\closedxml\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F290A5-731D-433B-8BF6-2661EAB74A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8404587C-B806-4C94-AC38-C6D33E909FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,27 +18,18 @@
   <definedNames>
     <definedName name="ApartmentId">Sheet1!$C$3</definedName>
     <definedName name="AssetId">Sheet1!$E$3</definedName>
-    <definedName name="AssetUsage">Sheet1!$A$4:$L$5</definedName>
-    <definedName name="Coefficient">Sheet1!$J$3</definedName>
+    <definedName name="AssetUsage">Sheet1!$A$4:$M$5</definedName>
+    <definedName name="Coefficient">Sheet1!$K$3</definedName>
     <definedName name="Creation">Sheet1!$A$2</definedName>
-    <definedName name="Date">Sheet1!$K$3</definedName>
-    <definedName name="Quantity">Sheet1!$I$3</definedName>
-    <definedName name="Remark">Sheet1!$L$3</definedName>
-    <definedName name="Usages">Sheet1!$A$4:$L$5</definedName>
+    <definedName name="Date">Sheet1!$L$3</definedName>
+    <definedName name="Quantity">Sheet1!$J$3</definedName>
+    <definedName name="Remark">Sheet1!$M$3</definedName>
+    <definedName name="Usages">Sheet1!$A$4:$M$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>{{item.Apartment.BuildingId}}</t>
   </si>
@@ -83,9 +74,6 @@
     <t>{{item.Asset.Item.Name}}</t>
   </si>
   <si>
-    <t>{{item.Latest.Quantity}}</t>
-  </si>
-  <si>
     <t>{{item.ApartmentId}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +139,18 @@
   </si>
   <si>
     <t>采集日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.Quantity}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.Date}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,6 +602,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0CE341-084C-48DB-BCB9-8FBA60896D57}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,16 +936,16 @@
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -954,12 +957,13 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <f ca="1">TODAY()</f>
-        <v>45133</v>
+        <v>45139</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -971,61 +975,65 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>2</v>
@@ -1033,18 +1041,21 @@
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17">
+      <c r="H4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17">
         <f ca="1">Creation</f>
-        <v>45133</v>
-      </c>
-      <c r="L4" s="11"/>
+        <v>45139</v>
+      </c>
+      <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1052,33 +1063,34 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="14"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>INDIRECT(ADDRESS(ROW(),COLUMN()-1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
       <formula>$A$2</formula>
     </cfRule>
